--- a/excel_with_subclasses/with_count/island_with_count.xlsx
+++ b/excel_with_subclasses/with_count/island_with_count.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
